--- a/Daten/Schulferien/FER2015_16.xlsx
+++ b/Daten/Schulferien/FER2015_16.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url=""/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achim\OneDrive\Hochschule\DSC_Semester4\Data Analytics and Business Intelligence 2\Projekt\dabi2-project\Daten\Schulferien\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5473A224-F868-40DC-9BEE-3B17A14372DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28260" windowHeight="11385"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,85 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Sekretariat der Ständigen Konferenz
-der Kultusminister der Länder
-in der Bundesrepublik Deutschland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERIEN IM SCHULJAHR 2015/2016</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">Taubenstr. 10, 10117 Berlin</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-Tel: 030/25418-499, Fax: 030/25418-450</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-http://www.kmk.org/ferienkalender.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">in den Ländern in der Bundesrepublik Deutschland</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Times New Roman"/>
-        <vertAlign val="superscript"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Land
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+  <si>
+    <t>Land
 (in Klammern Zahl der
 beweglichen Ferientage)</t>
   </si>
@@ -131,299 +56,299 @@
 2016</t>
   </si>
   <si>
-    <t xml:space="preserve">Baden-Württemberg (4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02.11. – 06.11.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. – 09.01.</t>
+    <t>Baden-Württemberg (4)</t>
+  </si>
+  <si>
+    <t>02.11. – 06.11.</t>
+  </si>
+  <si>
+    <t>23.12. – 09.01.</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">29.03. – 02.04.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.05. – 28.05.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.07. - 10.09.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bayern ()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02.11. – 07.11.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.12. – 05.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.02. – 12.02.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.03. - 01.04.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.05. – 28.05.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.07. - 12.09.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berlin (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.10. - 31.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. - 02.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.02. - 06.02.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.03. - 02.04.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06.05. und 17.05.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20./21.07. - 02.09.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brandenburg (2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.10. - 30.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. - 02.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.02. - 06.02.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.03. - 02.04.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06.05. und 17.05.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.07. - 03.09.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bremen (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.10. – 31.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. – 06.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.01. – 29.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.03. – 02.04.</t>
+    <t>29.03. – 02.04.</t>
+  </si>
+  <si>
+    <t>17.05. – 28.05.</t>
+  </si>
+  <si>
+    <t>28.07. - 10.09.</t>
+  </si>
+  <si>
+    <t>Bayern ()</t>
+  </si>
+  <si>
+    <t>02.11. – 07.11.</t>
+  </si>
+  <si>
+    <t>24.12. – 05.01.</t>
+  </si>
+  <si>
+    <t>08.02. – 12.02.</t>
+  </si>
+  <si>
+    <t>21.03. - 01.04.</t>
+  </si>
+  <si>
+    <t>17.05. – 28.05.</t>
+  </si>
+  <si>
+    <t>30.07. - 12.09.</t>
+  </si>
+  <si>
+    <t>Berlin (-)</t>
+  </si>
+  <si>
+    <t>19.10. - 31.10.</t>
+  </si>
+  <si>
+    <t>23.12. - 02.01.</t>
+  </si>
+  <si>
+    <t>01.02. - 06.02.</t>
+  </si>
+  <si>
+    <t>21.03. - 02.04.</t>
+  </si>
+  <si>
+    <t>06.05. und 17.05.</t>
+  </si>
+  <si>
+    <t>20./21.07. - 02.09.</t>
+  </si>
+  <si>
+    <t>Brandenburg (2)</t>
+  </si>
+  <si>
+    <t>19.10. - 30.10.</t>
+  </si>
+  <si>
+    <t>23.12. - 02.01.</t>
+  </si>
+  <si>
+    <t>01.02. - 06.02.</t>
+  </si>
+  <si>
+    <t>23.03. - 02.04.</t>
+  </si>
+  <si>
+    <t>06.05. und 17.05.</t>
+  </si>
+  <si>
+    <t>21.07. - 03.09.</t>
+  </si>
+  <si>
+    <t>Bremen (1)</t>
+  </si>
+  <si>
+    <t>19.10. – 31.10.</t>
+  </si>
+  <si>
+    <t>23.12. – 06.01.</t>
+  </si>
+  <si>
+    <t>28.01. – 29.01.</t>
+  </si>
+  <si>
+    <t>18.03. – 02.04.</t>
   </si>
   <si>
     <t>17.05.</t>
   </si>
   <si>
-    <t xml:space="preserve">23.06. - 03.08.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamburg (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.10. – 30.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.12. – 01.01.</t>
+    <t>23.06. - 03.08.</t>
+  </si>
+  <si>
+    <t>Hamburg (-)</t>
+  </si>
+  <si>
+    <t>19.10. – 30.10.</t>
+  </si>
+  <si>
+    <t>21.12. – 01.01.</t>
   </si>
   <si>
     <t>29.01.</t>
   </si>
   <si>
-    <t xml:space="preserve">07.03. – 18.03.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06.05. und
+    <t>07.03. – 18.03.</t>
+  </si>
+  <si>
+    <t>06.05. und
 17.05. – 20.05.</t>
   </si>
   <si>
-    <t xml:space="preserve">21.07. - 31.08.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hessen ()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.10. – 31.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. – 09.01.</t>
+    <t>21.07. - 31.08.</t>
+  </si>
+  <si>
+    <t>Hessen ()</t>
+  </si>
+  <si>
+    <t>19.10. – 31.10.</t>
+  </si>
+  <si>
+    <t>23.12. – 09.01.</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">29.03. – 09.04.</t>
+    <t>29.03. – 09.04.</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">18.07. - 26.08.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mecklenburg-Vorpommern (3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.10. – 30.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.12. – 02.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.02. – 13.02.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.03. – 30.03.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.05. – 17.05.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.07. - 03.09.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niedersachsen (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.10. – 31.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. – 06.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.01. – 29.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.03. – 02.04.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06.05. / 17. 05.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.06. - 03.08.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nordrhein-Westfalen (4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05.10. – 17.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. – 06.01.</t>
+    <t>18.07. - 26.08.</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern (3)</t>
+  </si>
+  <si>
+    <t>24.10. – 30.10.</t>
+  </si>
+  <si>
+    <t>21.12. – 02.01.</t>
+  </si>
+  <si>
+    <t>01.02. – 13.02.</t>
+  </si>
+  <si>
+    <t>21.03. – 30.03.</t>
+  </si>
+  <si>
+    <t>14.05. – 17.05.</t>
+  </si>
+  <si>
+    <t>25.07. - 03.09.</t>
+  </si>
+  <si>
+    <t>Niedersachsen (-)</t>
+  </si>
+  <si>
+    <t>19.10. – 31.10.</t>
+  </si>
+  <si>
+    <t>23.12. – 06.01.</t>
+  </si>
+  <si>
+    <t>28.01. – 29.01.</t>
+  </si>
+  <si>
+    <t>18.03. – 02.04.</t>
+  </si>
+  <si>
+    <t>06.05. / 17. 05.</t>
+  </si>
+  <si>
+    <t>23.06. - 03.08.</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen (4)</t>
+  </si>
+  <si>
+    <t>05.10. – 17.10.</t>
+  </si>
+  <si>
+    <t>23.12. – 06.01.</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">21.03. – 02.04.</t>
+    <t>21.03. – 02.04.</t>
   </si>
   <si>
     <t>17.05.</t>
   </si>
   <si>
-    <t xml:space="preserve">11.07. - 23.08.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rheinland-Pfalz (4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.10. – 30.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. – 08.01.</t>
+    <t>11.07. - 23.08.</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz (4)</t>
+  </si>
+  <si>
+    <t>19.10. – 30.10.</t>
+  </si>
+  <si>
+    <t>23.12. – 08.01.</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">18.03. – 01.04.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">18.07. - 26.08.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saarland (3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.10. – 31.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.12. – 02.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.02. – 13.02.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.03. – 09.04.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">18.07. - 27.08.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sachsen (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.10. – 24.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.12. – 02.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.02. – 20.02.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.03. – 02.04.</t>
+    <t>18.03. – 01.04.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>18.07. - 26.08.</t>
+  </si>
+  <si>
+    <t>Saarland (3)</t>
+  </si>
+  <si>
+    <t>19.10. – 31.10.</t>
+  </si>
+  <si>
+    <t>21.12. – 02.01.</t>
+  </si>
+  <si>
+    <t>08.02. – 13.02.</t>
+  </si>
+  <si>
+    <t>29.03. – 09.04.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>18.07. - 27.08.</t>
+  </si>
+  <si>
+    <t>Sachsen (-)</t>
+  </si>
+  <si>
+    <t>12.10. – 24.10.</t>
+  </si>
+  <si>
+    <t>21.12. – 02.01.</t>
+  </si>
+  <si>
+    <t>08.02. – 20.02.</t>
+  </si>
+  <si>
+    <t>25.03. – 02.04.</t>
   </si>
   <si>
     <t>06.05.</t>
   </si>
   <si>
-    <t xml:space="preserve">27.06. - 05.08.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sachsen-Anhalt (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.10. – 24.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.12. – 05.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.02. – 10.02.</t>
+    <t>27.06. - 05.08.</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt (-)</t>
+  </si>
+  <si>
+    <t>17.10. – 24.10.</t>
+  </si>
+  <si>
+    <t>21.12. – 05.01.</t>
+  </si>
+  <si>
+    <t>01.02. – 10.02.</t>
   </si>
   <si>
     <t>24.03.</t>
   </si>
   <si>
-    <t xml:space="preserve">06.05. – 14.05.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.06. - 10.08.</t>
+    <t>06.05. – 14.05.</t>
+  </si>
+  <si>
+    <t>27.06. - 10.08.</t>
   </si>
   <si>
     <r>
@@ -435,54 +360,54 @@
     </r>
     <r>
       <rPr>
+        <vertAlign val="superscript"/>
         <sz val="9"/>
         <rFont val="Times New Roman"/>
-        <vertAlign val="superscript"/>
       </rPr>
       <t>2</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">19.10. – 31.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.12. – 06.01.</t>
+    <t>19.10. – 31.10.</t>
+  </si>
+  <si>
+    <t>21.12. – 06.01.</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">24.03. – 09.04.</t>
+    <t>24.03. – 09.04.</t>
   </si>
   <si>
     <t>06.05.</t>
   </si>
   <si>
-    <t xml:space="preserve">25.07. - 03.09.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thüringen ()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05. – 17.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. – 02.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.02. – 06.02.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.03. – 02.04.</t>
+    <t>25.07. - 03.09.</t>
+  </si>
+  <si>
+    <t>Thüringen ()</t>
+  </si>
+  <si>
+    <t>05. – 17.10.</t>
+  </si>
+  <si>
+    <t>23.12. – 02.01.</t>
+  </si>
+  <si>
+    <t>01.02. – 06.02.</t>
+  </si>
+  <si>
+    <t>24.03. – 02.04.</t>
   </si>
   <si>
     <t>06.05.</t>
   </si>
   <si>
-    <t xml:space="preserve">27.06. - 10.08.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stand: 30.10.2013</t>
+    <t>27.06. - 10.08.</t>
+  </si>
+  <si>
+    <t>Stand: 30.10.2013</t>
   </si>
   <si>
     <r>
@@ -498,7 +423,7 @@
         <sz val="8"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t xml:space="preserve">Nachträgliche Änderungen einzelner Länder sind vorbehalten.</t>
+      <t>Nachträgliche Änderungen einzelner Länder sind vorbehalten.</t>
     </r>
   </si>
   <si>
@@ -523,7 +448,7 @@
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">Während die Kultusministerkonferenz die Sommerferien langfristig vereinbart, werden die übrigen Ferientermine von den Ländern selbst bestimmt. Die Länder übermitteln ihre Ferientermine
+    <t>Während die Kultusministerkonferenz die Sommerferien langfristig vereinbart, werden die übrigen Ferientermine von den Ländern selbst bestimmt. Die Länder übermitteln ihre Ferientermine
 dem Sekretariat der Kultusministerkonferenz, das sie als Übersicht veröffentlicht.</t>
   </si>
   <si>
@@ -567,19 +492,19 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Schulverwaltungen der einzelnen Länder finden Sie ggf. weitergehende Ferienplanungen für das jeweilige Land.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">SH - Auf den Inseln Sylt, Föhr, Amrum und Helgoland sowie auf den Halligen gelten für die Sommer- und Herbstferien Sonderregelungen.</t>
+    <t>Schulverwaltungen der einzelnen Länder finden Sie ggf. weitergehende Ferienplanungen für das jeweilige Land.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>SH - Auf den Inseln Sylt, Föhr, Amrum und Helgoland sowie auf den Halligen gelten für die Sommer- und Herbstferien Sonderregelungen.</t>
   </si>
   <si>
     <t/>
@@ -588,8 +513,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -598,17 +523,6 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -648,6 +562,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -657,21 +593,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -702,70 +629,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1042,558 +960,537 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="25"/>
     <col min="2" max="2" width="34"/>
-    <col min="3" max="3" width="16"/>
-    <col min="4" max="4" width="16"/>
+    <col min="3" max="4" width="16"/>
     <col min="5" max="5" width="17"/>
     <col min="6" max="6" width="21"/>
     <col min="7" max="7" width="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25" ht="41" customHeight="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25" ht="39" customHeight="1">
-      <c r="A2" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="2" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25" ht="41" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="8" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="8" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="D5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="F5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="G5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="8" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="C6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="F6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="G6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="8" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="D7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="E7" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="F7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="G7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="8" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="C8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="D8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="E8" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25" ht="28" customHeight="1">
-      <c r="A9" s="7" t="s">
+      <c r="F8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="G8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="8" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="E9" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="F9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="G9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="8" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="C10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="E10" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A11" s="9" t="s">
+      <c r="F10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="G10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="8" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="B11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="C11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="E11" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="F11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="G11" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="8" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="B12" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="C12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="D12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="E12" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A13" s="7" t="s">
+      <c r="F12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="G12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="8" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="C13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="D13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="E13" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A14" s="7" t="s">
+      <c r="F13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="G13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="8" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="B14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="C14" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="D14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="E14" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A15" s="7" t="s">
+      <c r="F14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="G14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="8" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="B15" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="C15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="D15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="E15" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A16" s="7" t="s">
+      <c r="F15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="G15" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="8" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="B16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="C16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="D16" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="E16" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A17" s="7" t="s">
+      <c r="F16" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="G16" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="8" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="B17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="C17" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="D17" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="E17" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A18" s="7" t="s">
+      <c r="F17" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="G17" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="8" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A19" s="7" t="s">
+      <c r="F21" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="G21" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="8" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="C22" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="E22" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25" ht="14" customHeight="1">
-      <c r="A20" s="11" t="s">
+      <c r="F22" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25" ht="15" customHeight="1">
-      <c r="A21" s="12">
-        <v>1</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="G22" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="0" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="B23" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="C23" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="B24" s="8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25" ht="25" customHeight="1">
-      <c r="A22" s="0" t="s">
+      <c r="C24" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="14" t="s">
+    </row>
+    <row r="25" spans="1:7" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="14">
+        <v>2</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C25" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="B26" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="C26" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="G22" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25" ht="16" customHeight="1">
-      <c r="A23" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A24" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25" ht="10" customHeight="1">
-      <c r="A25" s="18">
-        <v>2</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A26" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>155</v>
-      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:F2"/>
+  <mergeCells count="6">
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Daten/Schulferien/FER2015_16.xlsx
+++ b/Daten/Schulferien/FER2015_16.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achim\OneDrive\Hochschule\DSC_Semester4\Data Analytics and Business Intelligence 2\Projekt\dabi2-project\Daten\Schulferien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93680e6007ede3e3/Hochschule/DSC_Semester4/Data Analytics and Business Intelligence 2/Projekt/dabi2-project/Daten/Schulferien/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5473A224-F868-40DC-9BEE-3B17A14372DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5473A224-F868-40DC-9BEE-3B17A14372DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{087B81A9-632C-4479-905D-AE9D59E43D1B}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Land
 (in Klammern Zahl der
@@ -406,115 +406,12 @@
   <si>
     <t>27.06. - 10.08.</t>
   </si>
-  <si>
-    <t>Stand: 30.10.2013</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">Angegeben ist jeweils der erste und letzte Ferientag; angegeben ist auch die Anzahl der beweglichen Ferientage. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Nachträgliche Änderungen einzelner Länder sind vorbehalten.</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Während die Kultusministerkonferenz die Sommerferien langfristig vereinbart, werden die übrigen Ferientermine von den Ländern selbst bestimmt. Die Länder übermitteln ihre Ferientermine
-dem Sekretariat der Kultusministerkonferenz, das sie als Übersicht veröffentlicht.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> Die Veröffentlichung erfolgt fortlaufend. Es wird daher gebeten, von Nachfragen beim Sekretariat über ggf. noch nicht vorliegende Ferientermine abzusehen. Auf den Webseiten der</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Schulverwaltungen der einzelnen Länder finden Sie ggf. weitergehende Ferienplanungen für das jeweilige Land.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>SH - Auf den Inseln Sylt, Föhr, Amrum und Helgoland sowie auf den Halligen gelten für die Sommer- und Herbstferien Sonderregelungen.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -571,19 +468,6 @@
       <sz val="9"/>
       <name val="Times New Roman"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -657,29 +541,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,10 +848,10 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A18" sqref="A18:H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25"/>
     <col min="2" max="2" width="34"/>
@@ -977,7 +861,7 @@
     <col min="7" max="7" width="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1023,7 +907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1046,7 +930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1069,7 +953,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1092,7 +976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1115,7 +999,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -1138,7 +1022,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -1161,7 +1045,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
@@ -1184,7 +1068,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>63</v>
       </c>
@@ -1207,7 +1091,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>70</v>
       </c>
@@ -1230,7 +1114,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>77</v>
       </c>
@@ -1253,7 +1137,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>84</v>
       </c>
@@ -1276,7 +1160,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>91</v>
       </c>
@@ -1299,7 +1183,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>98</v>
       </c>
@@ -1322,7 +1206,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>105</v>
       </c>
@@ -1345,7 +1229,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>112</v>
       </c>
@@ -1368,120 +1252,64 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="5">
-        <v>1</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="14">
-        <v>2</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Daten/Schulferien/FER2015_16.xlsx
+++ b/Daten/Schulferien/FER2015_16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93680e6007ede3e3/Hochschule/DSC_Semester4/Data Analytics and Business Intelligence 2/Projekt/dabi2-project/Daten/Schulferien/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5473A224-F868-40DC-9BEE-3B17A14372DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{087B81A9-632C-4479-905D-AE9D59E43D1B}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{5473A224-F868-40DC-9BEE-3B17A14372DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC7EB61D-0AAB-4AA1-ABFF-F63D2989F461}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,16 +411,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
@@ -431,32 +425,6 @@
     <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -477,7 +445,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -500,70 +468,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,6 +503,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1254,72 +1181,14 @@
     </row>
     <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
+    <row r="20" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:7" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="C22:G22"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>